--- a/testcase/InterestTestDataResult.xlsx
+++ b/testcase/InterestTestDataResult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
@@ -53,7 +53,37 @@
     <t>caculateInterest in term không có ngày dư</t>
   </si>
   <si>
+    <t>HN000002</t>
+  </si>
+  <si>
+    <t>HN000003</t>
+  </si>
+  <si>
+    <t>HN000004</t>
+  </si>
+  <si>
+    <t>caculateInterest in term = 0</t>
+  </si>
+  <si>
+    <t>caculateInterest in term &gt; 0 đạt kì hạn &gt;=2 lần có ngày dư</t>
+  </si>
+  <si>
+    <t>caculateInterest in term &gt; 0 đạt kì hạn &gt;=2 lần không có ngày dư</t>
+  </si>
+  <si>
+    <t>caculateInterest in term &gt; 0 chưa đủ kì hạn</t>
+  </si>
+  <si>
+    <t>caculateInterest test vừa lập vừa rút luôn</t>
+  </si>
+  <si>
+    <t>caculateInterest in term có ngày dư</t>
+  </si>
+  <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -61,7 +91,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -104,8 +134,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -388,19 +418,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="9.109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="16.21875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="5" max="16384" style="1" width="8.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.109375" collapsed="true"/>
+    <col min="5" max="6" style="1" width="8.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="25.109375" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -434,19 +466,157 @@
         <v>7</v>
       </c>
       <c r="C2" s="4">
+        <v>43556</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8036000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8036000.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
         <v>43544</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>8000000</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" t="n">
         <v>8000000.0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
+      <c r="C4" s="4">
+        <v>43556</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1033333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1033333.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43556</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1033333</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1033333.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43544</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7744400</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7744400.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4">
+        <v>43556</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7780315</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7780315.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43184</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/testcase/InterestTestDataResult.xlsx
+++ b/testcase/InterestTestDataResult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>No</t>
   </si>

--- a/testcase/InterestTestDataResult.xlsx
+++ b/testcase/InterestTestDataResult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>No</t>
   </si>

--- a/testcase/InterestTestDataResult.xlsx
+++ b/testcase/InterestTestDataResult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="29">
   <si>
     <t>No</t>
   </si>
@@ -50,9 +50,6 @@
     <t>HN000001</t>
   </si>
   <si>
-    <t>caculateInterest in term không có ngày dư</t>
-  </si>
-  <si>
     <t>HN000002</t>
   </si>
   <si>
@@ -62,28 +59,58 @@
     <t>HN000004</t>
   </si>
   <si>
-    <t>caculateInterest in term = 0</t>
-  </si>
-  <si>
-    <t>caculateInterest in term &gt; 0 đạt kì hạn &gt;=2 lần có ngày dư</t>
-  </si>
-  <si>
-    <t>caculateInterest in term &gt; 0 đạt kì hạn &gt;=2 lần không có ngày dư</t>
-  </si>
-  <si>
-    <t>caculateInterest in term &gt; 0 chưa đủ kì hạn</t>
-  </si>
-  <si>
-    <t>caculateInterest test vừa lập vừa rút luôn</t>
-  </si>
-  <si>
-    <t>caculateInterest in term có ngày dư</t>
+    <t>HN000005</t>
+  </si>
+  <si>
+    <t>HN000006</t>
+  </si>
+  <si>
+    <t>HN000007</t>
+  </si>
+  <si>
+    <t>HN000008</t>
+  </si>
+  <si>
+    <t>HN000009</t>
+  </si>
+  <si>
+    <t>HN000010</t>
+  </si>
+  <si>
+    <t>HN000011</t>
+  </si>
+  <si>
+    <t>HN000012</t>
+  </si>
+  <si>
+    <t>HN000013</t>
+  </si>
+  <si>
+    <t>HN000014</t>
+  </si>
+  <si>
+    <t>HN000015</t>
+  </si>
+  <si>
+    <t>Kì hạn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đáo hạn đúng ngày </t>
+  </si>
+  <si>
+    <t>Đáo hạn sớm</t>
+  </si>
+  <si>
+    <t>Đáo hạn quá ngày nhưng chưa đủ kì hạn mới</t>
+  </si>
+  <si>
+    <t>Đáo hạn khi trải qua đúng 2 kì hạn</t>
+  </si>
+  <si>
+    <t>Đáo hạn khi trảu qua quá 2 kì hạn nhưng chưa sang kì hạn mới</t>
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
 </sst>
 </file>
@@ -418,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,12 +457,13 @@
     <col min="2" max="2" customWidth="true" style="1" width="16.21875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="11.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.109375" collapsed="true"/>
-    <col min="5" max="6" style="1" width="8.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="25.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="18.33203125" collapsed="true"/>
+    <col min="6" max="6" style="1" width="8.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="54.5546875" collapsed="true"/>
     <col min="8" max="16384" style="1" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,8 +485,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -466,22 +497,25 @@
         <v>7</v>
       </c>
       <c r="C2" s="4">
-        <v>43556</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8036000</v>
+        <v>43188</v>
+      </c>
+      <c r="D2">
+        <v>77777</v>
       </c>
       <c r="E2" t="n">
-        <v>8036000.0</v>
+        <v>77777.0</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -489,134 +523,1920 @@
         <v>7</v>
       </c>
       <c r="C3" s="4">
-        <v>43544</v>
-      </c>
-      <c r="D3" s="2">
-        <v>8000000</v>
+        <v>43190</v>
+      </c>
+      <c r="D3">
+        <v>458333</v>
       </c>
       <c r="E3" t="n">
-        <v>8000000.0</v>
+        <v>458333.0</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>43556</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1033333</v>
+        <v>43191</v>
+      </c>
+      <c r="D4">
+        <v>461124</v>
       </c>
       <c r="E4" t="n">
-        <v>1033333.0</v>
+        <v>461124.0</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4">
-        <v>43556</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1033333</v>
+        <v>43220</v>
+      </c>
+      <c r="D5">
+        <v>918767</v>
       </c>
       <c r="E5" t="n">
-        <v>1033333.0</v>
+        <v>918767.0</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4">
-        <v>43544</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7744400</v>
+        <v>43221</v>
+      </c>
+      <c r="D6">
+        <v>921571</v>
       </c>
       <c r="E6" t="n">
-        <v>7744400.0</v>
+        <v>921571.0</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4">
-        <v>43556</v>
-      </c>
-      <c r="D7" s="2">
-        <v>7780315</v>
+        <v>43218</v>
+      </c>
+      <c r="D7">
+        <v>161111</v>
       </c>
       <c r="E7" t="n">
-        <v>7780315.0</v>
+        <v>161111.0</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4">
-        <v>43184</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
+        <v>43220</v>
+      </c>
+      <c r="D8">
+        <v>916667</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>916667.0</v>
       </c>
       <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43221</v>
+      </c>
+      <c r="D9">
+        <v>919470</v>
+      </c>
+      <c r="E9" t="n">
+        <v>919470.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43280</v>
+      </c>
+      <c r="D10">
+        <v>1841736</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1841736.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43281</v>
+      </c>
+      <c r="D11">
+        <v>1844565</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1844565.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43248</v>
+      </c>
+      <c r="D12">
+        <v>244444</v>
+      </c>
+      <c r="E12" t="n">
+        <v>244444.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43250</v>
+      </c>
+      <c r="D13">
+        <v>1375000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1375000.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43251</v>
+      </c>
+      <c r="D14">
+        <v>1377816</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1377816.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43340</v>
+      </c>
+      <c r="D15">
+        <v>2768906</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2768906.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43341</v>
+      </c>
+      <c r="D16">
+        <v>2771761</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2771761.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43308</v>
+      </c>
+      <c r="D17">
+        <v>411111</v>
+      </c>
+      <c r="E17" t="n">
+        <v>411111.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43310</v>
+      </c>
+      <c r="D18">
+        <v>2291667</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2291667.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3">
+        <v>43311</v>
+      </c>
+      <c r="D19">
+        <v>2294508</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2294508.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43460</v>
+      </c>
+      <c r="D20">
+        <v>4635851</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4635851.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43461</v>
+      </c>
+      <c r="D21">
+        <v>4638757</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4638757.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43338</v>
+      </c>
+      <c r="D22">
+        <v>494444</v>
+      </c>
+      <c r="E22" t="n">
+        <v>494444.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43340</v>
+      </c>
+      <c r="D23">
+        <v>3800000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3800000.0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43341</v>
+      </c>
+      <c r="D24">
+        <v>3802883</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3802883.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3">
+        <v>43520</v>
+      </c>
+      <c r="D25">
+        <v>7744400</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7744400.0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3">
+        <v>43521</v>
+      </c>
+      <c r="D26">
+        <v>7747393</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7747393.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3">
+        <v>43398</v>
+      </c>
+      <c r="D27">
+        <v>661111</v>
+      </c>
+      <c r="E27" t="n">
+        <v>661111.0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3">
+        <v>43400</v>
+      </c>
+      <c r="D28">
+        <v>5066667</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5066667.0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3">
+        <v>43401</v>
+      </c>
+      <c r="D29">
+        <v>5069585</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5069585.0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3">
+        <v>43640</v>
+      </c>
+      <c r="D30">
+        <v>10390044</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.0390044E7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3">
+        <v>43641</v>
+      </c>
+      <c r="D31">
+        <v>10393111</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.0393111E7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3">
+        <v>43428</v>
+      </c>
+      <c r="D32">
+        <v>744444</v>
+      </c>
+      <c r="E32" t="n">
+        <v>744444.0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="3">
+        <v>43430</v>
+      </c>
+      <c r="D33">
+        <v>5850000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5850000.0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3">
+        <v>43431</v>
+      </c>
+      <c r="D34">
+        <v>5852940</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5852940.0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="3">
+        <v>43700</v>
+      </c>
+      <c r="D35">
+        <v>12042225</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.2042225E7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="3">
+        <v>43701</v>
+      </c>
+      <c r="D36">
+        <v>12045337</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.2045337E7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="3">
+        <v>43488</v>
+      </c>
+      <c r="D37">
+        <v>911111</v>
+      </c>
+      <c r="E37" t="n">
+        <v>911111.0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="3">
+        <v>43490</v>
+      </c>
+      <c r="D38">
+        <v>7150000</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7150000.0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="3">
+        <v>43491</v>
+      </c>
+      <c r="D39">
+        <v>7152976</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7152976.0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="3">
+        <v>43820</v>
+      </c>
+      <c r="D40">
+        <v>14811225</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.4811225E7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="3">
+        <v>43821</v>
+      </c>
+      <c r="D41">
+        <v>14814414</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.4814414E7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="3">
+        <v>43518</v>
+      </c>
+      <c r="D42">
+        <v>994444</v>
+      </c>
+      <c r="E42" t="n">
+        <v>994444.0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="3">
+        <v>43520</v>
+      </c>
+      <c r="D43">
+        <v>8000000</v>
+      </c>
+      <c r="E43" t="n">
+        <v>8000000.0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="3">
+        <v>43521</v>
+      </c>
+      <c r="D44">
+        <v>8003000</v>
+      </c>
+      <c r="E44" t="n">
+        <v>8003000.0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="3">
+        <v>43880</v>
+      </c>
+      <c r="D45">
+        <v>16640000</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.664E7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="3">
+        <v>43881</v>
+      </c>
+      <c r="D46">
+        <v>16643240</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.664324E7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="C47" s="3">
+        <v>43638</v>
+      </c>
+      <c r="D47">
+        <v>1327777</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1327777.0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="3">
+        <v>43640</v>
+      </c>
+      <c r="D48">
+        <v>10666667</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.0666667E7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="3">
+        <v>43641</v>
+      </c>
+      <c r="D49">
+        <v>10669741</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.0669741E7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="3">
+        <v>44120</v>
+      </c>
+      <c r="D50">
+        <v>22471111</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2.2471111E7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="3">
+        <v>44121</v>
+      </c>
+      <c r="D51">
+        <v>22474513</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.2474513E7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="3">
+        <v>43698</v>
+      </c>
+      <c r="D52">
+        <v>1494444</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1494444.0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="3">
+        <v>43700</v>
+      </c>
+      <c r="D53">
+        <v>12150000</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.215E7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="3">
+        <v>43701</v>
+      </c>
+      <c r="D54">
+        <v>12153115</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.2153115E7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44240</v>
+      </c>
+      <c r="D55">
+        <v>25776225</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.5776225E7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="3">
+        <v>44241</v>
+      </c>
+      <c r="D56">
+        <v>25779719</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.5779719E7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="3">
+        <v>43758</v>
+      </c>
+      <c r="D57">
+        <v>1661111</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1661111.0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="3">
+        <v>43760</v>
+      </c>
+      <c r="D58">
+        <v>13500000</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.35E7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="3">
+        <v>43761</v>
+      </c>
+      <c r="D59">
+        <v>13503153</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.3503153E7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="3">
+        <v>44360</v>
+      </c>
+      <c r="D60">
+        <v>28822500</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2.88225E7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="3">
+        <v>44361</v>
+      </c>
+      <c r="D61">
+        <v>28826078</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.8826078E7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="3">
+        <v>43878</v>
+      </c>
+      <c r="D62">
+        <v>1994444</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1994444.0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="3">
+        <v>43880</v>
+      </c>
+      <c r="D63">
+        <v>16200000</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.62E7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="3">
+        <v>43881</v>
+      </c>
+      <c r="D64">
+        <v>16203228</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.6203228E7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="3">
+        <v>44600</v>
+      </c>
+      <c r="D65">
+        <v>35024400</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.50244E7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="3">
+        <v>44601</v>
+      </c>
+      <c r="D66">
+        <v>35028151</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.5028151E7</v>
+      </c>
+      <c r="F66" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="3">
+        <v>44058</v>
+      </c>
+      <c r="D67">
+        <v>2494444</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2494444.0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="3">
+        <v>44060</v>
+      </c>
+      <c r="D68">
+        <v>20250000</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.025E7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="3">
+        <v>44061</v>
+      </c>
+      <c r="D69">
+        <v>20253340</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.025334E7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="3">
+        <v>44960</v>
+      </c>
+      <c r="D70">
+        <v>44600625</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.4600625E7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="3">
+        <v>44961</v>
+      </c>
+      <c r="D71">
+        <v>44604642</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4.4604642E7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="3">
+        <v>44238</v>
+      </c>
+      <c r="D72">
+        <v>2994444</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2994444.0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="3">
+        <v>44240</v>
+      </c>
+      <c r="D73">
+        <v>24300000</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.43E7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="3">
+        <v>44241</v>
+      </c>
+      <c r="D74">
+        <v>24303453</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.4303453E7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="3">
+        <v>45320</v>
+      </c>
+      <c r="D75">
+        <v>54504900</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5.45049E7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="3">
+        <v>45321</v>
+      </c>
+      <c r="D76">
+        <v>54509192</v>
+      </c>
+      <c r="E76" t="n">
+        <v>5.4509192E7</v>
+      </c>
+      <c r="F76" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="1">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/testcase/InterestTestDataResult.xlsx
+++ b/testcase/InterestTestDataResult.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitproject\QLSTK\testcase\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -110,6 +110,18 @@
     <t>Đáo hạn khi trảu qua quá 2 kì hạn nhưng chưa sang kì hạn mới</t>
   </si>
   <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term </t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
 </sst>
@@ -155,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -164,6 +176,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,25 +460,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="9.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="16.21875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="18.33203125" collapsed="true"/>
-    <col min="6" max="6" style="1" width="8.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="54.5546875" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="9.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.21875" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="10" width="8.88671875" style="1" collapsed="1"/>
+    <col min="11" max="11" width="61.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,1971 +488,2883 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G2" s="4">
         <v>43188</v>
       </c>
-      <c r="D2">
+      <c r="H2">
         <v>77777</v>
       </c>
-      <c r="E2" t="n">
-        <v>77777.0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2">
+        <v>77777</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1">
+      <c r="L2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G3" s="4">
         <v>43190</v>
       </c>
-      <c r="D3">
+      <c r="H3">
         <v>458333</v>
       </c>
-      <c r="E3" t="n">
-        <v>458333.0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3">
+        <v>458333</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1">
+      <c r="L3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G4" s="4">
         <v>43191</v>
       </c>
-      <c r="D4">
+      <c r="H4">
         <v>461124</v>
       </c>
-      <c r="E4" t="n">
-        <v>461124.0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4">
+        <v>461124</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="1">
+      <c r="L4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G5" s="4">
         <v>43220</v>
       </c>
-      <c r="D5">
+      <c r="H5">
         <v>918767</v>
       </c>
-      <c r="E5" t="n">
-        <v>918767.0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5">
+        <v>918767</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="1">
+      <c r="L5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G6" s="4">
         <v>43221</v>
       </c>
-      <c r="D6">
+      <c r="H6">
         <v>921571</v>
       </c>
-      <c r="E6" t="n">
-        <v>921571.0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6">
+        <v>921571</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="1">
+      <c r="L6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G7" s="4">
         <v>43218</v>
       </c>
-      <c r="D7">
+      <c r="H7">
         <v>161111</v>
       </c>
-      <c r="E7" t="n">
-        <v>161111.0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7">
+        <v>161111</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="1">
+      <c r="L7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G8" s="4">
         <v>43220</v>
       </c>
-      <c r="D8">
+      <c r="H8">
         <v>916667</v>
       </c>
-      <c r="E8" t="n">
-        <v>916667.0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8">
+        <v>916667</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="1">
+      <c r="L8" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G9" s="3">
         <v>43221</v>
       </c>
-      <c r="D9">
+      <c r="H9">
         <v>919470</v>
       </c>
-      <c r="E9" t="n">
-        <v>919470.0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9">
+        <v>919470</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="1">
+      <c r="L9" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G10" s="3">
         <v>43280</v>
       </c>
-      <c r="D10">
+      <c r="H10">
         <v>1841736</v>
       </c>
-      <c r="E10" t="n">
-        <v>1841736.0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="I10">
+        <v>1841736</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="1">
+      <c r="L10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G11" s="3">
         <v>43281</v>
       </c>
-      <c r="D11">
+      <c r="H11">
         <v>1844565</v>
       </c>
-      <c r="E11" t="n">
-        <v>1844565.0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="I11">
+        <v>1844565</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="1">
+      <c r="L11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G12" s="3">
         <v>43248</v>
       </c>
-      <c r="D12">
+      <c r="H12">
         <v>244444</v>
       </c>
-      <c r="E12" t="n">
-        <v>244444.0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12">
+        <v>244444</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="1">
+      <c r="L12" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G13" s="3">
         <v>43250</v>
       </c>
-      <c r="D13">
+      <c r="H13">
         <v>1375000</v>
       </c>
-      <c r="E13" t="n">
-        <v>1375000.0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="I13">
+        <v>1375000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="1">
+      <c r="L13" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G14" s="3">
         <v>43251</v>
       </c>
-      <c r="D14">
+      <c r="H14">
         <v>1377816</v>
       </c>
-      <c r="E14" t="n">
-        <v>1377816.0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="I14">
+        <v>1377816</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="1">
+      <c r="L14" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G15" s="3">
         <v>43340</v>
       </c>
-      <c r="D15">
+      <c r="H15">
         <v>2768906</v>
       </c>
-      <c r="E15" t="n">
-        <v>2768906.0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="I15">
+        <v>2768906</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="1">
+      <c r="L15" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G16" s="3">
         <v>43341</v>
       </c>
-      <c r="D16">
+      <c r="H16">
         <v>2771761</v>
       </c>
-      <c r="E16" t="n">
-        <v>2771761.0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="I16">
+        <v>2771761</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="1">
+      <c r="L16" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G17" s="3">
         <v>43308</v>
       </c>
-      <c r="D17">
+      <c r="H17">
         <v>411111</v>
       </c>
-      <c r="E17" t="n">
-        <v>411111.0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="I17">
+        <v>411111</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="1">
+      <c r="L17" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D18" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E18" s="5">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G18" s="3">
         <v>43310</v>
       </c>
-      <c r="D18">
+      <c r="H18">
         <v>2291667</v>
       </c>
-      <c r="E18" t="n">
-        <v>2291667.0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="I18">
+        <v>2291667</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="1">
+      <c r="L18" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G19" s="3">
         <v>43311</v>
       </c>
-      <c r="D19">
+      <c r="H19">
         <v>2294508</v>
       </c>
-      <c r="E19" t="n">
-        <v>2294508.0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="I19">
+        <v>2294508</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="1">
+      <c r="L19" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D20" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G20" s="3">
         <v>43460</v>
       </c>
-      <c r="D20">
+      <c r="H20">
         <v>4635851</v>
       </c>
-      <c r="E20" t="n">
-        <v>4635851.0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="I20">
+        <v>4635851</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="1">
+      <c r="L20" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G21" s="3">
         <v>43461</v>
       </c>
-      <c r="D21">
+      <c r="H21">
         <v>4638757</v>
       </c>
-      <c r="E21" t="n">
-        <v>4638757.0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="I21">
+        <v>4638757</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="1">
+      <c r="L21" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D22" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="E22" s="5">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G22" s="3">
         <v>43338</v>
       </c>
-      <c r="D22">
+      <c r="H22">
         <v>494444</v>
       </c>
-      <c r="E22" t="n">
-        <v>494444.0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="I22">
+        <v>494444</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="1">
+      <c r="L22" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D23" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="E23" s="5">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G23" s="3">
         <v>43340</v>
       </c>
-      <c r="D23">
+      <c r="H23">
         <v>3800000</v>
       </c>
-      <c r="E23" t="n">
-        <v>3800000.0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="I23">
+        <v>3800000</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="1">
+      <c r="L23" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D24" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="E24" s="5">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G24" s="3">
         <v>43341</v>
       </c>
-      <c r="D24">
+      <c r="H24">
         <v>3802883</v>
       </c>
-      <c r="E24" t="n">
-        <v>3802883.0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="I24">
+        <v>3802883</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="1">
+      <c r="L24" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D25" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="E25" s="5">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G25" s="3">
         <v>43520</v>
       </c>
-      <c r="D25">
+      <c r="H25">
         <v>7744400</v>
       </c>
-      <c r="E25" t="n">
-        <v>7744400.0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="I25">
+        <v>7744400</v>
+      </c>
+      <c r="J25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="1">
+      <c r="L25" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D26" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="E26" s="5">
+        <v>6</v>
+      </c>
+      <c r="F26" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G26" s="3">
         <v>43521</v>
       </c>
-      <c r="D26">
+      <c r="H26">
         <v>7747393</v>
       </c>
-      <c r="E26" t="n">
-        <v>7747393.0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="I26">
+        <v>7747393</v>
+      </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="1">
+      <c r="L26" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D27" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="E27" s="5">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G27" s="3">
         <v>43398</v>
       </c>
-      <c r="D27">
+      <c r="H27">
         <v>661111</v>
       </c>
-      <c r="E27" t="n">
-        <v>661111.0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="I27">
+        <v>661111</v>
+      </c>
+      <c r="J27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="1">
+      <c r="L27" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D28" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="E28" s="5">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G28" s="3">
         <v>43400</v>
       </c>
-      <c r="D28">
+      <c r="H28">
         <v>5066667</v>
       </c>
-      <c r="E28" t="n">
-        <v>5066667.0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="I28">
+        <v>5066667</v>
+      </c>
+      <c r="J28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="1">
+      <c r="L28" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D29" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="E29" s="5">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G29" s="3">
         <v>43401</v>
       </c>
-      <c r="D29">
+      <c r="H29">
         <v>5069585</v>
       </c>
-      <c r="E29" t="n">
-        <v>5069585.0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="I29">
+        <v>5069585</v>
+      </c>
+      <c r="J29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="1">
+      <c r="L29" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D30" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="E30" s="5">
+        <v>8</v>
+      </c>
+      <c r="F30" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G30" s="3">
         <v>43640</v>
       </c>
-      <c r="D30">
+      <c r="H30">
         <v>10390044</v>
       </c>
-      <c r="E30" t="n">
-        <v>1.0390044E7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="I30">
+        <v>10390044</v>
+      </c>
+      <c r="J30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="1">
+      <c r="L30" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D31" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="E31" s="5">
+        <v>8</v>
+      </c>
+      <c r="F31" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G31" s="3">
         <v>43641</v>
       </c>
-      <c r="D31">
+      <c r="H31">
         <v>10393111</v>
       </c>
-      <c r="E31" t="n">
-        <v>1.0393111E7</v>
-      </c>
-      <c r="F31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="I31">
+        <v>10393111</v>
+      </c>
+      <c r="J31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="1">
+      <c r="L31" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D32" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="E32" s="5">
+        <v>9</v>
+      </c>
+      <c r="F32" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G32" s="3">
         <v>43428</v>
       </c>
-      <c r="D32">
+      <c r="H32">
         <v>744444</v>
       </c>
-      <c r="E32" t="n">
-        <v>744444.0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="I32">
+        <v>744444</v>
+      </c>
+      <c r="J32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="1">
+      <c r="L32" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D33" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="E33" s="5">
+        <v>9</v>
+      </c>
+      <c r="F33" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G33" s="3">
         <v>43430</v>
       </c>
-      <c r="D33">
+      <c r="H33">
         <v>5850000</v>
       </c>
-      <c r="E33" t="n">
-        <v>5850000.0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="I33">
+        <v>5850000</v>
+      </c>
+      <c r="J33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="1">
+      <c r="L33" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D34" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="E34" s="5">
+        <v>9</v>
+      </c>
+      <c r="F34" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G34" s="3">
         <v>43431</v>
       </c>
-      <c r="D34">
+      <c r="H34">
         <v>5852940</v>
       </c>
-      <c r="E34" t="n">
-        <v>5852940.0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="I34">
+        <v>5852940</v>
+      </c>
+      <c r="J34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="1">
+      <c r="L34" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D35" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="E35" s="5">
+        <v>9</v>
+      </c>
+      <c r="F35" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G35" s="3">
         <v>43700</v>
       </c>
-      <c r="D35">
+      <c r="H35">
         <v>12042225</v>
       </c>
-      <c r="E35" t="n">
-        <v>1.2042225E7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="I35">
+        <v>12042225</v>
+      </c>
+      <c r="J35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="1">
+      <c r="L35" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D36" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="E36" s="5">
+        <v>9</v>
+      </c>
+      <c r="F36" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G36" s="3">
         <v>43701</v>
       </c>
-      <c r="D36">
+      <c r="H36">
         <v>12045337</v>
       </c>
-      <c r="E36" t="n">
-        <v>1.2045337E7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="I36">
+        <v>12045337</v>
+      </c>
+      <c r="J36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="1">
+      <c r="L36" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D37" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="E37" s="5">
+        <v>11</v>
+      </c>
+      <c r="F37" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G37" s="3">
         <v>43488</v>
       </c>
-      <c r="D37">
+      <c r="H37">
         <v>911111</v>
       </c>
-      <c r="E37" t="n">
-        <v>911111.0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="I37">
+        <v>911111</v>
+      </c>
+      <c r="J37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="1">
+      <c r="L37" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D38" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="E38" s="5">
+        <v>11</v>
+      </c>
+      <c r="F38" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G38" s="3">
         <v>43490</v>
       </c>
-      <c r="D38">
+      <c r="H38">
         <v>7150000</v>
       </c>
-      <c r="E38" t="n">
-        <v>7150000.0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="2" t="s">
+      <c r="I38">
+        <v>7150000</v>
+      </c>
+      <c r="J38" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="1">
+      <c r="L38" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D39" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="E39" s="5">
+        <v>11</v>
+      </c>
+      <c r="F39" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G39" s="3">
         <v>43491</v>
       </c>
-      <c r="D39">
+      <c r="H39">
         <v>7152976</v>
       </c>
-      <c r="E39" t="n">
-        <v>7152976.0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="2" t="s">
+      <c r="I39">
+        <v>7152976</v>
+      </c>
+      <c r="J39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H39" s="1">
+      <c r="L39" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D40" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="E40" s="5">
+        <v>11</v>
+      </c>
+      <c r="F40" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G40" s="3">
         <v>43820</v>
       </c>
-      <c r="D40">
+      <c r="H40">
         <v>14811225</v>
       </c>
-      <c r="E40" t="n">
-        <v>1.4811225E7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="I40">
+        <v>14811225</v>
+      </c>
+      <c r="J40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="1">
+      <c r="L40" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D41" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="E41" s="5">
+        <v>11</v>
+      </c>
+      <c r="F41" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G41" s="3">
         <v>43821</v>
       </c>
-      <c r="D41">
+      <c r="H41">
         <v>14814414</v>
       </c>
-      <c r="E41" t="n">
-        <v>1.4814414E7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="I41">
+        <v>14814414</v>
+      </c>
+      <c r="J41" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="1">
+      <c r="L41" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D42" s="5">
+        <v>8</v>
+      </c>
+      <c r="E42" s="5">
+        <v>12</v>
+      </c>
+      <c r="F42" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G42" s="3">
         <v>43518</v>
       </c>
-      <c r="D42">
+      <c r="H42">
         <v>994444</v>
       </c>
-      <c r="E42" t="n">
-        <v>994444.0</v>
-      </c>
-      <c r="F42" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="I42">
+        <v>994444</v>
+      </c>
+      <c r="J42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="1">
+      <c r="L42" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D43" s="5">
+        <v>8</v>
+      </c>
+      <c r="E43" s="5">
+        <v>12</v>
+      </c>
+      <c r="F43" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G43" s="3">
         <v>43520</v>
       </c>
-      <c r="D43">
+      <c r="H43">
         <v>8000000</v>
       </c>
-      <c r="E43" t="n">
-        <v>8000000.0</v>
-      </c>
-      <c r="F43" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="I43">
+        <v>8000000</v>
+      </c>
+      <c r="J43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="1">
+      <c r="L43" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D44" s="5">
+        <v>8</v>
+      </c>
+      <c r="E44" s="5">
+        <v>12</v>
+      </c>
+      <c r="F44" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G44" s="3">
         <v>43521</v>
       </c>
-      <c r="D44">
+      <c r="H44">
         <v>8003000</v>
       </c>
-      <c r="E44" t="n">
-        <v>8003000.0</v>
-      </c>
-      <c r="F44" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="2" t="s">
+      <c r="I44">
+        <v>8003000</v>
+      </c>
+      <c r="J44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="1">
+      <c r="L44" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D45" s="5">
+        <v>8</v>
+      </c>
+      <c r="E45" s="5">
+        <v>12</v>
+      </c>
+      <c r="F45" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G45" s="3">
         <v>43880</v>
       </c>
-      <c r="D45">
+      <c r="H45">
         <v>16640000</v>
       </c>
-      <c r="E45" t="n">
-        <v>1.664E7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="I45">
+        <v>16640000</v>
+      </c>
+      <c r="J45" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="1">
+      <c r="L45" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D46" s="5">
+        <v>8</v>
+      </c>
+      <c r="E46" s="5">
+        <v>12</v>
+      </c>
+      <c r="F46" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G46" s="3">
         <v>43881</v>
       </c>
-      <c r="D46">
+      <c r="H46">
         <v>16643240</v>
       </c>
-      <c r="E46" t="n">
-        <v>1.664324E7</v>
-      </c>
-      <c r="F46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="2" t="s">
+      <c r="I46">
+        <v>16643240</v>
+      </c>
+      <c r="J46" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="1">
+      <c r="L46" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D47" s="5">
+        <v>8</v>
+      </c>
+      <c r="E47" s="5">
+        <v>16</v>
+      </c>
+      <c r="F47" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G47" s="3">
         <v>43638</v>
       </c>
-      <c r="D47">
+      <c r="H47">
         <v>1327777</v>
       </c>
-      <c r="E47" t="n">
-        <v>1327777.0</v>
-      </c>
-      <c r="F47" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="I47">
+        <v>1327777</v>
+      </c>
+      <c r="J47" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="1">
+      <c r="L47" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D48" s="5">
+        <v>8</v>
+      </c>
+      <c r="E48" s="5">
+        <v>16</v>
+      </c>
+      <c r="F48" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G48" s="3">
         <v>43640</v>
       </c>
-      <c r="D48">
+      <c r="H48">
         <v>10666667</v>
       </c>
-      <c r="E48" t="n">
-        <v>1.0666667E7</v>
-      </c>
-      <c r="F48" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="2" t="s">
+      <c r="I48">
+        <v>10666667</v>
+      </c>
+      <c r="J48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="1">
+      <c r="L48" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D49" s="5">
+        <v>8</v>
+      </c>
+      <c r="E49" s="5">
+        <v>16</v>
+      </c>
+      <c r="F49" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G49" s="3">
         <v>43641</v>
       </c>
-      <c r="D49">
+      <c r="H49">
         <v>10669741</v>
       </c>
-      <c r="E49" t="n">
-        <v>1.0669741E7</v>
-      </c>
-      <c r="F49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="I49">
+        <v>10669741</v>
+      </c>
+      <c r="J49" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H49" s="1">
+      <c r="L49" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D50" s="5">
+        <v>8</v>
+      </c>
+      <c r="E50" s="5">
+        <v>16</v>
+      </c>
+      <c r="F50" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G50" s="3">
         <v>44120</v>
       </c>
-      <c r="D50">
+      <c r="H50">
         <v>22471111</v>
       </c>
-      <c r="E50" t="n">
-        <v>2.2471111E7</v>
-      </c>
-      <c r="F50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="2" t="s">
+      <c r="I50">
+        <v>22471111</v>
+      </c>
+      <c r="J50" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H50" s="1">
+      <c r="L50" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D51" s="5">
+        <v>8</v>
+      </c>
+      <c r="E51" s="5">
+        <v>16</v>
+      </c>
+      <c r="F51" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G51" s="3">
         <v>44121</v>
       </c>
-      <c r="D51">
+      <c r="H51">
         <v>22474513</v>
       </c>
-      <c r="E51" t="n">
-        <v>2.2474513E7</v>
-      </c>
-      <c r="F51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="2" t="s">
+      <c r="I51">
+        <v>22474513</v>
+      </c>
+      <c r="J51" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H51" s="1">
+      <c r="L51" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D52" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E52" s="5">
+        <v>18</v>
+      </c>
+      <c r="F52" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G52" s="3">
         <v>43698</v>
       </c>
-      <c r="D52">
+      <c r="H52">
         <v>1494444</v>
       </c>
-      <c r="E52" t="n">
-        <v>1494444.0</v>
-      </c>
-      <c r="F52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="1" t="s">
+      <c r="I52">
+        <v>1494444</v>
+      </c>
+      <c r="J52" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="1">
+      <c r="L52" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D53" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E53" s="5">
+        <v>18</v>
+      </c>
+      <c r="F53" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G53" s="3">
         <v>43700</v>
       </c>
-      <c r="D53">
+      <c r="H53">
         <v>12150000</v>
       </c>
-      <c r="E53" t="n">
-        <v>1.215E7</v>
-      </c>
-      <c r="F53" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" s="2" t="s">
+      <c r="I53">
+        <v>12150000</v>
+      </c>
+      <c r="J53" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H53" s="1">
+      <c r="L53" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D54" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E54" s="5">
+        <v>18</v>
+      </c>
+      <c r="F54" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G54" s="3">
         <v>43701</v>
       </c>
-      <c r="D54">
+      <c r="H54">
         <v>12153115</v>
       </c>
-      <c r="E54" t="n">
-        <v>1.2153115E7</v>
-      </c>
-      <c r="F54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="2" t="s">
+      <c r="I54">
+        <v>12153115</v>
+      </c>
+      <c r="J54" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H54" s="1">
+      <c r="L54" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D55" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E55" s="5">
+        <v>18</v>
+      </c>
+      <c r="F55" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G55" s="3">
         <v>44240</v>
       </c>
-      <c r="D55">
+      <c r="H55">
         <v>25776225</v>
       </c>
-      <c r="E55" t="n">
-        <v>2.5776225E7</v>
-      </c>
-      <c r="F55" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="I55">
+        <v>25776225</v>
+      </c>
+      <c r="J55" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H55" s="1">
+      <c r="L55" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D56" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E56" s="5">
+        <v>18</v>
+      </c>
+      <c r="F56" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G56" s="3">
         <v>44241</v>
       </c>
-      <c r="D56">
+      <c r="H56">
         <v>25779719</v>
       </c>
-      <c r="E56" t="n">
-        <v>2.5779719E7</v>
-      </c>
-      <c r="F56" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="I56">
+        <v>25779719</v>
+      </c>
+      <c r="J56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H56" s="1">
+      <c r="L56" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D57" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E57" s="5">
+        <v>20</v>
+      </c>
+      <c r="F57" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G57" s="3">
         <v>43758</v>
       </c>
-      <c r="D57">
+      <c r="H57">
         <v>1661111</v>
       </c>
-      <c r="E57" t="n">
-        <v>1661111.0</v>
-      </c>
-      <c r="F57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" s="1" t="s">
+      <c r="I57">
+        <v>1661111</v>
+      </c>
+      <c r="J57" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="1">
+      <c r="L57" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D58" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E58" s="5">
+        <v>20</v>
+      </c>
+      <c r="F58" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G58" s="3">
         <v>43760</v>
       </c>
-      <c r="D58">
+      <c r="H58">
         <v>13500000</v>
       </c>
-      <c r="E58" t="n">
-        <v>1.35E7</v>
-      </c>
-      <c r="F58" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" s="2" t="s">
+      <c r="I58">
+        <v>13500000</v>
+      </c>
+      <c r="J58" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H58" s="1">
+      <c r="L58" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D59" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E59" s="5">
+        <v>20</v>
+      </c>
+      <c r="F59" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G59" s="3">
         <v>43761</v>
       </c>
-      <c r="D59">
+      <c r="H59">
         <v>13503153</v>
       </c>
-      <c r="E59" t="n">
-        <v>1.3503153E7</v>
-      </c>
-      <c r="F59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" s="2" t="s">
+      <c r="I59">
+        <v>13503153</v>
+      </c>
+      <c r="J59" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H59" s="1">
+      <c r="L59" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D60" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E60" s="5">
+        <v>20</v>
+      </c>
+      <c r="F60" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G60" s="3">
         <v>44360</v>
       </c>
-      <c r="D60">
+      <c r="H60">
         <v>28822500</v>
       </c>
-      <c r="E60" t="n">
-        <v>2.88225E7</v>
-      </c>
-      <c r="F60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" s="2" t="s">
+      <c r="I60">
+        <v>28822500</v>
+      </c>
+      <c r="J60" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H60" s="1">
+      <c r="L60" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D61" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E61" s="5">
+        <v>20</v>
+      </c>
+      <c r="F61" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G61" s="3">
         <v>44361</v>
       </c>
-      <c r="D61">
+      <c r="H61">
         <v>28826078</v>
       </c>
-      <c r="E61" t="n">
-        <v>2.8826078E7</v>
-      </c>
-      <c r="F61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61" s="2" t="s">
+      <c r="I61">
+        <v>28826078</v>
+      </c>
+      <c r="J61" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H61" s="1">
+      <c r="L61" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D62" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E62" s="5">
+        <v>24</v>
+      </c>
+      <c r="F62" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G62" s="3">
         <v>43878</v>
       </c>
-      <c r="D62">
+      <c r="H62">
         <v>1994444</v>
       </c>
-      <c r="E62" t="n">
-        <v>1994444.0</v>
-      </c>
-      <c r="F62" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" s="1" t="s">
+      <c r="I62">
+        <v>1994444</v>
+      </c>
+      <c r="J62" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H62" s="1">
+      <c r="L62" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D63" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E63" s="5">
+        <v>24</v>
+      </c>
+      <c r="F63" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G63" s="3">
         <v>43880</v>
       </c>
-      <c r="D63">
+      <c r="H63">
         <v>16200000</v>
       </c>
-      <c r="E63" t="n">
-        <v>1.62E7</v>
-      </c>
-      <c r="F63" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63" s="2" t="s">
+      <c r="I63">
+        <v>16200000</v>
+      </c>
+      <c r="J63" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H63" s="1">
+      <c r="L63" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D64" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E64" s="5">
+        <v>24</v>
+      </c>
+      <c r="F64" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G64" s="3">
         <v>43881</v>
       </c>
-      <c r="D64">
+      <c r="H64">
         <v>16203228</v>
       </c>
-      <c r="E64" t="n">
-        <v>1.6203228E7</v>
-      </c>
-      <c r="F64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" s="2" t="s">
+      <c r="I64">
+        <v>16203228</v>
+      </c>
+      <c r="J64" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H64" s="1">
+      <c r="L64" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D65" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E65" s="5">
+        <v>24</v>
+      </c>
+      <c r="F65" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G65" s="3">
         <v>44600</v>
       </c>
-      <c r="D65">
+      <c r="H65">
         <v>35024400</v>
       </c>
-      <c r="E65" t="n">
-        <v>3.50244E7</v>
-      </c>
-      <c r="F65" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" s="2" t="s">
+      <c r="I65">
+        <v>35024400</v>
+      </c>
+      <c r="J65" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H65" s="1">
+      <c r="L65" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D66" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E66" s="5">
+        <v>24</v>
+      </c>
+      <c r="F66" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G66" s="3">
         <v>44601</v>
       </c>
-      <c r="D66">
+      <c r="H66">
         <v>35028151</v>
       </c>
-      <c r="E66" t="n">
-        <v>3.5028151E7</v>
-      </c>
-      <c r="F66" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" s="2" t="s">
+      <c r="I66">
+        <v>35028151</v>
+      </c>
+      <c r="J66" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H66" s="1">
+      <c r="L66" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D67" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E67" s="5">
+        <v>30</v>
+      </c>
+      <c r="F67" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G67" s="3">
         <v>44058</v>
       </c>
-      <c r="D67">
+      <c r="H67">
         <v>2494444</v>
       </c>
-      <c r="E67" t="n">
-        <v>2494444.0</v>
-      </c>
-      <c r="F67" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="1" t="s">
+      <c r="I67">
+        <v>2494444</v>
+      </c>
+      <c r="J67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="1">
+      <c r="L67" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D68" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E68" s="5">
+        <v>30</v>
+      </c>
+      <c r="F68" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G68" s="3">
         <v>44060</v>
       </c>
-      <c r="D68">
+      <c r="H68">
         <v>20250000</v>
       </c>
-      <c r="E68" t="n">
-        <v>2.025E7</v>
-      </c>
-      <c r="F68" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" s="2" t="s">
+      <c r="I68">
+        <v>20250000</v>
+      </c>
+      <c r="J68" t="s">
+        <v>32</v>
+      </c>
+      <c r="K68" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H68" s="1">
+      <c r="L68" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D69" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E69" s="5">
+        <v>30</v>
+      </c>
+      <c r="F69" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G69" s="3">
         <v>44061</v>
       </c>
-      <c r="D69">
+      <c r="H69">
         <v>20253340</v>
       </c>
-      <c r="E69" t="n">
-        <v>2.025334E7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" s="2" t="s">
+      <c r="I69">
+        <v>20253340</v>
+      </c>
+      <c r="J69" t="s">
+        <v>32</v>
+      </c>
+      <c r="K69" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H69" s="1">
+      <c r="L69" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D70" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E70" s="5">
+        <v>30</v>
+      </c>
+      <c r="F70" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G70" s="3">
         <v>44960</v>
       </c>
-      <c r="D70">
+      <c r="H70">
         <v>44600625</v>
       </c>
-      <c r="E70" t="n">
-        <v>4.4600625E7</v>
-      </c>
-      <c r="F70" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" s="2" t="s">
+      <c r="I70">
+        <v>44600625</v>
+      </c>
+      <c r="J70" t="s">
+        <v>32</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H70" s="1">
+      <c r="L70" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D71" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E71" s="5">
+        <v>30</v>
+      </c>
+      <c r="F71" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G71" s="3">
         <v>44961</v>
       </c>
-      <c r="D71">
+      <c r="H71">
         <v>44604642</v>
       </c>
-      <c r="E71" t="n">
-        <v>4.4604642E7</v>
-      </c>
-      <c r="F71" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71" s="2" t="s">
+      <c r="I71">
+        <v>44604642</v>
+      </c>
+      <c r="J71" t="s">
+        <v>32</v>
+      </c>
+      <c r="K71" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H71" s="1">
+      <c r="L71" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D72" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E72" s="5">
+        <v>36</v>
+      </c>
+      <c r="F72" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G72" s="3">
         <v>44238</v>
       </c>
-      <c r="D72">
+      <c r="H72">
         <v>2994444</v>
       </c>
-      <c r="E72" t="n">
-        <v>2994444.0</v>
-      </c>
-      <c r="F72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" s="1" t="s">
+      <c r="I72">
+        <v>2994444</v>
+      </c>
+      <c r="J72" t="s">
+        <v>32</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H72" s="1">
+      <c r="L72" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D73" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E73" s="5">
+        <v>36</v>
+      </c>
+      <c r="F73" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G73" s="3">
         <v>44240</v>
       </c>
-      <c r="D73">
+      <c r="H73">
         <v>24300000</v>
       </c>
-      <c r="E73" t="n">
-        <v>2.43E7</v>
-      </c>
-      <c r="F73" t="s">
-        <v>28</v>
-      </c>
-      <c r="G73" s="2" t="s">
+      <c r="I73">
+        <v>24300000</v>
+      </c>
+      <c r="J73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H73" s="1">
+      <c r="L73" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D74" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E74" s="5">
+        <v>36</v>
+      </c>
+      <c r="F74" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G74" s="3">
         <v>44241</v>
       </c>
-      <c r="D74">
+      <c r="H74">
         <v>24303453</v>
       </c>
-      <c r="E74" t="n">
-        <v>2.4303453E7</v>
-      </c>
-      <c r="F74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" s="2" t="s">
+      <c r="I74">
+        <v>24303453</v>
+      </c>
+      <c r="J74" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H74" s="1">
+      <c r="L74" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D75" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E75" s="5">
+        <v>36</v>
+      </c>
+      <c r="F75" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G75" s="3">
         <v>45320</v>
       </c>
-      <c r="D75">
+      <c r="H75">
         <v>54504900</v>
       </c>
-      <c r="E75" t="n">
-        <v>5.45049E7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>28</v>
-      </c>
-      <c r="G75" s="2" t="s">
+      <c r="I75">
+        <v>54504900</v>
+      </c>
+      <c r="J75" t="s">
+        <v>32</v>
+      </c>
+      <c r="K75" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H75" s="1">
+      <c r="L75" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="5">
+        <v>100000000</v>
+      </c>
+      <c r="D76" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="E76" s="5">
+        <v>36</v>
+      </c>
+      <c r="F76" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G76" s="3">
         <v>45321</v>
       </c>
-      <c r="D76">
+      <c r="H76">
         <v>54509192</v>
       </c>
-      <c r="E76" t="n">
-        <v>5.4509192E7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" s="2" t="s">
+      <c r="I76">
+        <v>54509192</v>
+      </c>
+      <c r="J76" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H76" s="1">
+      <c r="L76" s="1">
         <v>36</v>
       </c>
     </row>

--- a/testcase/InterestTestDataResult.xlsx
+++ b/testcase/InterestTestDataResult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="34">
   <si>
     <t>No</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Đáo hạn khi trải qua quá 2 kì hạn nhưng chưa sang kì hạn mới</t>
   </si>
 </sst>
 </file>
@@ -462,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,12 +474,12 @@
     <col min="1" max="1" width="9.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.21875" style="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.33203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.88671875" style="1" customWidth="1" collapsed="1"/>
     <col min="8" max="10" width="8.88671875" style="1" collapsed="1"/>
-    <col min="11" max="11" width="61.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="43.33203125" style="1" customWidth="1" collapsed="1"/>
     <col min="12" max="16384" width="8.88671875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -702,7 +705,7 @@
         <v>32</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -892,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L11" s="1">
         <v>2</v>
@@ -1082,7 +1085,7 @@
         <v>32</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L16" s="1">
         <v>3</v>
@@ -1272,7 +1275,7 @@
         <v>32</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L21" s="1">
         <v>5</v>
@@ -1462,7 +1465,7 @@
         <v>32</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L26" s="1">
         <v>6</v>
@@ -1652,7 +1655,7 @@
         <v>32</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L31" s="1">
         <v>8</v>
